--- a/CRUD/test.xlsx
+++ b/CRUD/test.xlsx
@@ -1,47 +1,68 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772"/>
+  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
   </sheets>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+  <si>
+    <t>Dheena</t>
+  </si>
+  <si>
+    <t>Chidhambaram</t>
+  </si>
+  <si>
+    <t>Data Analyst</t>
+  </si>
+  <si>
+    <t>Arun</t>
+  </si>
+  <si>
+    <t>Neyveli</t>
+  </si>
+  <si>
+    <t>Site Engineer</t>
+  </si>
+  <si>
+    <t>Vicky</t>
+  </si>
+  <si>
+    <t>Tuticorin</t>
+  </si>
+  <si>
+    <t>Web Developer</t>
+  </si>
+  <si>
+    <t>Ragul</t>
+  </si>
+  <si>
+    <t>chennai</t>
+  </si>
+  <si>
+    <t>Senior java developer</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -65,13 +86,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,48 +425,131 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.3" customHeight="1"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>age</v>
-      </c>
-      <c r="C1" t="str">
-        <v>country</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>hjk</v>
-      </c>
-      <c r="B2">
-        <v>30</v>
-      </c>
-      <c r="C2" t="str">
-        <v>USA</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>hjkbnm</v>
-      </c>
-      <c r="B3">
-        <v>25</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Canada</v>
+    <row r="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>40000</v>
       </c>
     </row>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C3"/>
-  </ignoredErrors>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>